--- a/processed_data/all_seasons_processed_.xlsx
+++ b/processed_data/all_seasons_processed_.xlsx
@@ -486,12 +486,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>100's</t>
+          <t>100s</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>50's</t>
+          <t>50s</t>
         </is>
       </c>
       <c r="M1" s="1" t="n">
